--- a/static/Magnovite-Schedule.xlsx
+++ b/static/Magnovite-Schedule.xlsx
@@ -1,13 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
-  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20740" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20610" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TERM" sheetId="1" r:id="rId1"/>
+    <sheet name="Reg fee" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">TERM!$9:$9</definedName>
@@ -15,11 +18,8 @@
     <definedName name="StartTime">TERM!$C$5</definedName>
     <definedName name="TimeInterval">TERM!$F$5</definedName>
   </definedNames>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="171026"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="113">
   <si>
     <t>TIME</t>
   </si>
@@ -102,9 +102,6 @@
     <t>Eureka: The Tech Expo</t>
   </si>
   <si>
-    <t>Papier Expose</t>
-  </si>
-  <si>
     <t>Code Fights</t>
   </si>
   <si>
@@ -120,7 +117,7 @@
     <t>Line X</t>
   </si>
   <si>
-    <t>Dance Program (by Gokul Sir)</t>
+    <t>Right Click</t>
   </si>
   <si>
     <t>DAY 1 (Thu)</t>
@@ -132,26 +129,254 @@
     <t>DAY 3 (Sat)</t>
   </si>
   <si>
+    <t>Paper Expose</t>
+  </si>
+  <si>
+    <t>Valedictory</t>
+  </si>
+  <si>
+    <t>PARTICIPANTS FEES AND INCOME DETAILS</t>
+  </si>
+  <si>
+    <t>SL NO</t>
+  </si>
+  <si>
+    <t>Description (Tech)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reg Fee </t>
+  </si>
+  <si>
+    <t>Participants per team</t>
+  </si>
+  <si>
+    <t>No. of expected registration</t>
+  </si>
+  <si>
+    <t>Total Participants</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>URBAN PLANNING</t>
+  </si>
+  <si>
+    <t>3 to 4</t>
+  </si>
+  <si>
+    <t>BRIDGE D&amp;F</t>
+  </si>
+  <si>
+    <t>HACKATHON (WITHOUT SPONSOR)</t>
+  </si>
+  <si>
+    <t>3 to 5</t>
+  </si>
+  <si>
+    <t>CODE FIGHTS</t>
+  </si>
+  <si>
+    <t>GAMING SOLO</t>
+  </si>
+  <si>
+    <t>GAMING GROUP</t>
+  </si>
+  <si>
+    <t>HUNT OF THE TECHIE PIRATES</t>
+  </si>
+  <si>
+    <t>CIRCUIT DEBUGGING</t>
+  </si>
+  <si>
+    <t>1 to 3</t>
+  </si>
+  <si>
+    <t>MACKREO</t>
+  </si>
+  <si>
+    <t>ROBO WARS</t>
+  </si>
+  <si>
+    <t>2 to 5</t>
+  </si>
+  <si>
+    <t>LEAGUE OF DESIGNERS</t>
+  </si>
+  <si>
+    <t>DETACH &amp; CONSTRUCT</t>
+  </si>
+  <si>
+    <t>LINE X</t>
+  </si>
+  <si>
+    <t>CONNECT THE DOTS</t>
+  </si>
+  <si>
+    <t>2 to 4</t>
+  </si>
+  <si>
+    <t>PAPER EXPO</t>
+  </si>
+  <si>
+    <t>4 max</t>
+  </si>
+  <si>
+    <t>EUREKA: THE TECH EXPO</t>
+  </si>
+  <si>
+    <t>1 to 4</t>
+  </si>
+  <si>
+    <t>Sl  no</t>
+  </si>
+  <si>
+    <t>Description (Non-Tech)</t>
+  </si>
+  <si>
+    <t>ART RELAY</t>
+  </si>
+  <si>
+    <t>DUMB CHARADES</t>
+  </si>
+  <si>
+    <t>QUIZ</t>
+  </si>
+  <si>
+    <t>SWITCH</t>
+  </si>
+  <si>
+    <t>GROUP DISCUSSION</t>
+  </si>
+  <si>
+    <t>INDIAN MUSIC</t>
+  </si>
+  <si>
+    <t>3 to 10</t>
+  </si>
+  <si>
+    <t>WESTERN ELECTRIC</t>
+  </si>
+  <si>
+    <t>1 to 6</t>
+  </si>
+  <si>
+    <t>STREET PLAY</t>
+  </si>
+  <si>
+    <t>8 to 20</t>
+  </si>
+  <si>
+    <t>WESTERN DANCE</t>
+  </si>
+  <si>
+    <t>10to22</t>
+  </si>
+  <si>
+    <t>INDIAN DANCE</t>
+  </si>
+  <si>
+    <t>Third Prize is given only for 10 and more registrations</t>
+  </si>
+  <si>
+    <t>Second prize is given only for  6 and more registrations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only one prize will be given for 3 to 5 registrations </t>
+  </si>
+  <si>
+    <t>Event will  be cancelled if there are less than three teams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HACKATHON </t>
+  </si>
+  <si>
+    <t>TECHNICAL EVENTS</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>DEPARTMENT</t>
+  </si>
+  <si>
+    <t>1ST PRIZE</t>
+  </si>
+  <si>
+    <t>2nd PRIZE</t>
+  </si>
+  <si>
+    <t>3RD PRIZE</t>
+  </si>
+  <si>
+    <t>ORGANIZING EXPENSE</t>
+  </si>
+  <si>
+    <t>AMOUNT IN Rs</t>
+  </si>
+  <si>
+    <t>CIVIL</t>
+  </si>
+  <si>
+    <t>CS/IT</t>
+  </si>
+  <si>
+    <t>NIL</t>
+  </si>
+  <si>
+    <t>ECE</t>
+  </si>
+  <si>
+    <t>MECH</t>
+  </si>
+  <si>
+    <t>GENERAL</t>
+  </si>
+  <si>
+    <t>ECE/EEE</t>
+  </si>
+  <si>
+    <t>MECH/AUTO</t>
+  </si>
+  <si>
+    <t>sub total</t>
+  </si>
+  <si>
+    <t>NON-TECHNICAL EVENTS</t>
+  </si>
+  <si>
+    <t>2ND PRIZE</t>
+  </si>
+  <si>
+    <t>3RD PIZE</t>
+  </si>
+  <si>
+    <t>ORGANIZING  EXPENSE</t>
+  </si>
+  <si>
+    <t>TOTAL AMOUNT IN Rs</t>
+  </si>
+  <si>
+    <t>Sub-total</t>
+  </si>
+  <si>
+    <t>Band Performance-Supriya Lohit and Crew</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gaming (Blur)</t>
+  </si>
+  <si>
     <t>Gaming (CS:Source)</t>
-  </si>
-  <si>
-    <t>Gaming (Blur)</t>
-  </si>
-  <si>
-    <t>Right click</t>
-  </si>
-  <si>
-    <t>Valedictory Function</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh:mm;@"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="0" tint="-0.34998626667073579"/>
@@ -285,28 +510,87 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="9"/>
-      <color theme="10"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="9"/>
-      <color theme="11"/>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="2"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,8 +621,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -543,29 +839,9 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
@@ -575,8 +851,32 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -584,37 +884,19 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -624,20 +906,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -677,12 +947,18 @@
     <xf numFmtId="164" fontId="5" fillId="3" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="18" fontId="15" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -692,8 +968,139 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="3" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -707,7 +1114,13 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -737,15 +1150,18 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -755,12 +1171,6 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -774,6 +1184,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -812,78 +1231,47 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+  <cellStyles count="5">
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
@@ -1014,14 +1402,14 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="University module manager table style" pivot="0" count="5">
+    <tableStyle name="University module manager table style" pivot="0" count="5" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstColumn" dxfId="6"/>
       <tableStyleElement type="lastColumn" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="University module manager table style 2" pivot="0" count="5">
+    <tableStyle name="University module manager table style 2" pivot="0" count="5" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="totalRow" dxfId="2"/>
@@ -1089,7 +1477,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1121,9 +1509,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1155,6 +1561,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1330,710 +1754,689 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1">
     <tabColor theme="1" tint="0.14999847407452621"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB36"/>
+  <dimension ref="A1:X36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22:K24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D6" zoomScale="50" zoomScaleNormal="50" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="C18" sqref="C18:T18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.3984375" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="0.59765625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="0.6640625" style="6" customWidth="1"/>
     <col min="2" max="2" width="22" style="6" customWidth="1"/>
     <col min="3" max="24" width="17" style="5" customWidth="1"/>
-    <col min="25" max="16384" width="9.3984375" style="5"/>
+    <col min="25" max="16384" width="9.33203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="3" customFormat="1" ht="6" customHeight="1">
+    <row r="1" spans="1:24" s="3" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="J1" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="3" customFormat="1" ht="15">
+    <row r="2" spans="1:24" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:24" s="10" customFormat="1" ht="31.5" customHeight="1">
+    <row r="3" spans="1:24" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="3" customFormat="1" ht="6" customHeight="1">
+    <row r="4" spans="1:24" s="3" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:24" ht="6" customHeight="1">
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
+    <row r="5" spans="1:24" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:24" ht="33" customHeight="1"/>
-    <row r="7" spans="1:24" ht="18">
-      <c r="A7" s="22" t="s">
+    <row r="6" spans="1:24" ht="33" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:24" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A7" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="14">
+      <c r="B7" s="69"/>
+      <c r="C7" s="15">
         <v>0.375</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="15">
         <v>0.39583333333333331</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="15">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="15">
         <v>0.4375</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="15">
         <v>0.45833333333333331</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="15">
         <v>0.47916666666666669</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="15">
         <v>0.5</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="15">
         <v>0.52083333333333337</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="15">
         <v>0.54166666666666663</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="15">
         <v>0.5625</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M7" s="15">
         <v>0.58333333333333337</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N7" s="15">
         <v>0.60416666666666663</v>
       </c>
-      <c r="O7" s="14">
+      <c r="O7" s="15">
         <v>0.625</v>
       </c>
-      <c r="P7" s="14">
+      <c r="P7" s="15">
         <v>0.64583333333333337</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="Q7" s="15">
         <v>0.66666666666666663</v>
       </c>
-      <c r="R7" s="14">
+      <c r="R7" s="15">
         <v>0.6875</v>
       </c>
-      <c r="S7" s="14">
+      <c r="S7" s="15">
         <v>0.70833333333333337</v>
       </c>
-      <c r="T7" s="14">
+      <c r="T7" s="15">
         <v>0.72916666666666663</v>
       </c>
-      <c r="U7" s="14">
+      <c r="U7" s="15">
         <v>0.75</v>
       </c>
-      <c r="V7" s="14">
+      <c r="V7" s="15">
         <v>0.77083333333333337</v>
       </c>
-      <c r="W7" s="14" t="s">
+      <c r="W7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="X7" s="14">
+      <c r="X7" s="15">
         <v>0.8125</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="32" customHeight="1">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:24" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="66"/>
+      <c r="C8" s="107" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="98" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="99"/>
+      <c r="Q8" s="99"/>
+      <c r="R8" s="99"/>
+      <c r="S8" s="99"/>
+      <c r="T8" s="99"/>
+      <c r="U8" s="99"/>
+      <c r="V8" s="99"/>
+      <c r="W8" s="99"/>
+      <c r="X8" s="100"/>
+    </row>
+    <row r="9" spans="1:24" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="67"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="99"/>
+      <c r="Q9" s="99"/>
+      <c r="R9" s="99"/>
+      <c r="S9" s="99"/>
+      <c r="T9" s="100"/>
+      <c r="U9" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="V9" s="77"/>
+      <c r="W9" s="77"/>
+      <c r="X9" s="78"/>
+    </row>
+    <row r="10" spans="1:24" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="67"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="98" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="99"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="99"/>
+      <c r="N10" s="99"/>
+      <c r="O10" s="99"/>
+      <c r="P10" s="99"/>
+      <c r="Q10" s="99"/>
+      <c r="R10" s="99"/>
+      <c r="S10" s="99"/>
+      <c r="T10" s="100"/>
+      <c r="U10" s="79"/>
+      <c r="V10" s="80"/>
+      <c r="W10" s="80"/>
+      <c r="X10" s="81"/>
+    </row>
+    <row r="11" spans="1:24" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="67"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="98" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="99"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="100"/>
+      <c r="P11" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q11" s="99"/>
+      <c r="R11" s="99"/>
+      <c r="S11" s="99"/>
+      <c r="T11" s="100"/>
+      <c r="U11" s="79"/>
+      <c r="V11" s="80"/>
+      <c r="W11" s="80"/>
+      <c r="X11" s="81"/>
+    </row>
+    <row r="12" spans="1:24" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="67"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="98" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="100"/>
+      <c r="O12" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="P12" s="95"/>
+      <c r="Q12" s="95"/>
+      <c r="R12" s="95"/>
+      <c r="S12" s="95"/>
+      <c r="T12" s="96"/>
+      <c r="U12" s="79"/>
+      <c r="V12" s="80"/>
+      <c r="W12" s="80"/>
+      <c r="X12" s="81"/>
+    </row>
+    <row r="13" spans="1:24" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="67"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" s="102"/>
+      <c r="O13" s="102"/>
+      <c r="P13" s="102"/>
+      <c r="Q13" s="104" t="s">
+        <v>14</v>
+      </c>
+      <c r="R13" s="105"/>
+      <c r="S13" s="105"/>
+      <c r="T13" s="106"/>
+      <c r="U13" s="79"/>
+      <c r="V13" s="80"/>
+      <c r="W13" s="80"/>
+      <c r="X13" s="81"/>
+    </row>
+    <row r="14" spans="1:24" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="68"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="J14" s="87"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="87"/>
+      <c r="N14" s="87"/>
+      <c r="O14" s="87"/>
+      <c r="P14" s="87"/>
+      <c r="Q14" s="87"/>
+      <c r="R14" s="87"/>
+      <c r="S14" s="87"/>
+      <c r="T14" s="88"/>
+      <c r="U14" s="79"/>
+      <c r="V14" s="80"/>
+      <c r="W14" s="80"/>
+      <c r="X14" s="81"/>
+    </row>
+    <row r="15" spans="1:24" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="47" t="s">
+      <c r="B15" s="66"/>
+      <c r="C15" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="48"/>
-      <c r="X8" s="49"/>
-    </row>
-    <row r="9" spans="1:24" ht="42" customHeight="1">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="49"/>
-      <c r="U9" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="29"/>
-    </row>
-    <row r="10" spans="1:24" ht="42" customHeight="1">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="47" t="s">
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="49"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="31"/>
-      <c r="W10" s="31"/>
-      <c r="X10" s="32"/>
-    </row>
-    <row r="11" spans="1:24" ht="42" customHeight="1">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="49"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="31"/>
-      <c r="W11" s="31"/>
-      <c r="X11" s="32"/>
-    </row>
-    <row r="12" spans="1:24" ht="42" customHeight="1">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="47" t="s">
+      <c r="P15" s="74"/>
+      <c r="Q15" s="74"/>
+      <c r="R15" s="74"/>
+      <c r="S15" s="74"/>
+      <c r="T15" s="74"/>
+      <c r="U15" s="92" t="s">
+        <v>110</v>
+      </c>
+      <c r="V15" s="92"/>
+      <c r="W15" s="92"/>
+      <c r="X15" s="92"/>
+    </row>
+    <row r="16" spans="1:24" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="67"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="60"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="32"/>
-    </row>
-    <row r="13" spans="1:24" ht="42" customHeight="1">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="R13" s="54"/>
-      <c r="S13" s="54"/>
-      <c r="T13" s="55"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="31"/>
-      <c r="X13" s="32"/>
-    </row>
-    <row r="14" spans="1:24" ht="42" customHeight="1">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="31"/>
-      <c r="X14" s="32"/>
-    </row>
-    <row r="15" spans="1:24" ht="42" customHeight="1">
-      <c r="A15" s="19" t="s">
+      <c r="P16" s="65"/>
+      <c r="Q16" s="65"/>
+      <c r="R16" s="65"/>
+      <c r="S16" s="65"/>
+      <c r="T16" s="65"/>
+      <c r="U16" s="92"/>
+      <c r="V16" s="92"/>
+      <c r="W16" s="92"/>
+      <c r="X16" s="92"/>
+    </row>
+    <row r="17" spans="1:24" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="67"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q17" s="65"/>
+      <c r="R17" s="65"/>
+      <c r="S17" s="65"/>
+      <c r="T17" s="65"/>
+      <c r="U17" s="92"/>
+      <c r="V17" s="92"/>
+      <c r="W17" s="92"/>
+      <c r="X17" s="92"/>
+    </row>
+    <row r="18" spans="1:24" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="67"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="83" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="84"/>
+      <c r="N18" s="84"/>
+      <c r="O18" s="84"/>
+      <c r="P18" s="84"/>
+      <c r="Q18" s="84"/>
+      <c r="R18" s="84"/>
+      <c r="S18" s="84"/>
+      <c r="T18" s="85"/>
+      <c r="U18" s="92"/>
+      <c r="V18" s="92"/>
+      <c r="W18" s="92"/>
+      <c r="X18" s="92"/>
+    </row>
+    <row r="19" spans="1:24" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="67"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="L19" s="73"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="P19" s="72"/>
+      <c r="Q19" s="72"/>
+      <c r="R19" s="72"/>
+      <c r="S19" s="72"/>
+      <c r="T19" s="82"/>
+      <c r="U19" s="92"/>
+      <c r="V19" s="92"/>
+      <c r="W19" s="92"/>
+      <c r="X19" s="92"/>
+    </row>
+    <row r="20" spans="1:24" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="67"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="O20" s="73"/>
+      <c r="P20" s="73"/>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="73"/>
+      <c r="S20" s="73"/>
+      <c r="T20" s="73"/>
+      <c r="U20" s="92"/>
+      <c r="V20" s="92"/>
+      <c r="W20" s="92"/>
+      <c r="X20" s="92"/>
+    </row>
+    <row r="21" spans="1:24" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="68"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="72"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="92"/>
+      <c r="V21" s="92"/>
+      <c r="W21" s="92"/>
+      <c r="X21" s="92"/>
+    </row>
+    <row r="22" spans="1:24" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="V15" s="44"/>
-      <c r="W15" s="44"/>
-      <c r="X15" s="44"/>
-    </row>
-    <row r="16" spans="1:24" ht="42" customHeight="1">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23" t="s">
+      <c r="B22" s="66"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="44"/>
-      <c r="V16" s="44"/>
-      <c r="W16" s="44"/>
-      <c r="X16" s="44"/>
-    </row>
-    <row r="17" spans="1:28" ht="42" customHeight="1">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="44"/>
-      <c r="W17" s="44"/>
-      <c r="X17" s="44"/>
-    </row>
-    <row r="18" spans="1:28" ht="42" customHeight="1">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="23" t="s">
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="44"/>
-      <c r="V18" s="44"/>
-      <c r="W18" s="44"/>
-      <c r="X18" s="44"/>
-    </row>
-    <row r="19" spans="1:28" ht="42" customHeight="1">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="44"/>
-      <c r="V19" s="44"/>
-      <c r="W19" s="44"/>
-      <c r="X19" s="44"/>
-    </row>
-    <row r="20" spans="1:28" ht="42" customHeight="1">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="44"/>
-      <c r="V20" s="44"/>
-      <c r="W20" s="44"/>
-      <c r="X20" s="44"/>
-    </row>
-    <row r="21" spans="1:28" ht="42" customHeight="1">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="44"/>
-      <c r="V21" s="44"/>
-      <c r="W21" s="44"/>
-      <c r="X21" s="44"/>
-      <c r="Z21" s="73"/>
-      <c r="AA21" s="73"/>
-      <c r="AB21" s="73"/>
-    </row>
-    <row r="22" spans="1:28" ht="42" customHeight="1">
-      <c r="A22" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="39"/>
-      <c r="S22" s="39"/>
-      <c r="T22" s="39"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="39"/>
-      <c r="W22" s="39"/>
-      <c r="X22" s="67"/>
-      <c r="Y22" s="65"/>
-      <c r="Z22" s="65"/>
-      <c r="AA22" s="65"/>
-      <c r="AB22" s="73"/>
-    </row>
-    <row r="23" spans="1:28" ht="42" customHeight="1">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="68"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="40"/>
-      <c r="U23" s="40"/>
-      <c r="V23" s="40"/>
-      <c r="W23" s="40"/>
-      <c r="X23" s="69"/>
-      <c r="Y23" s="65"/>
-      <c r="Z23" s="65"/>
-      <c r="AA23" s="65"/>
-      <c r="AB23" s="73"/>
-    </row>
-    <row r="24" spans="1:28" ht="42" customHeight="1">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="43"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="79"/>
+      <c r="V22" s="80"/>
+      <c r="W22" s="80"/>
+      <c r="X22" s="81"/>
+    </row>
+    <row r="23" spans="1:24" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="67"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="79"/>
+      <c r="V23" s="80"/>
+      <c r="W23" s="80"/>
+      <c r="X23" s="81"/>
+    </row>
+    <row r="24" spans="1:24" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="68"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
       <c r="L24" s="70"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="71"/>
-      <c r="Q24" s="71"/>
-      <c r="R24" s="71"/>
-      <c r="S24" s="71"/>
-      <c r="T24" s="71"/>
-      <c r="U24" s="71"/>
-      <c r="V24" s="71"/>
-      <c r="W24" s="71"/>
-      <c r="X24" s="72"/>
-      <c r="Y24" s="65"/>
-      <c r="Z24" s="65"/>
-      <c r="AA24" s="65"/>
-      <c r="AB24" s="73"/>
-    </row>
-    <row r="25" spans="1:28" ht="42" customHeight="1">
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="89"/>
+      <c r="V24" s="90"/>
+      <c r="W24" s="90"/>
+      <c r="X24" s="91"/>
+    </row>
+    <row r="25" spans="1:24" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="Q25" s="13"/>
-      <c r="Y25" s="73"/>
-      <c r="Z25" s="73"/>
-      <c r="AA25" s="73"/>
-      <c r="AB25" s="73"/>
-    </row>
-    <row r="26" spans="1:28" ht="42" customHeight="1">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="Y26" s="73"/>
-    </row>
-    <row r="27" spans="1:28" ht="32" customHeight="1">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-    </row>
-    <row r="28" spans="1:28" ht="31.5" customHeight="1">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
-    </row>
-    <row r="29" spans="1:28" ht="31.5" customHeight="1">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
-    </row>
-    <row r="30" spans="1:28" ht="31.5" customHeight="1">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-    </row>
-    <row r="31" spans="1:28" ht="31.5" customHeight="1">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
-    </row>
-    <row r="32" spans="1:28" ht="31.5" customHeight="1">
-      <c r="A32" s="26"/>
-      <c r="B32" s="26"/>
-    </row>
-    <row r="33" spans="1:2" ht="31.5" customHeight="1">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
-    </row>
-    <row r="34" spans="1:2" ht="31.5" customHeight="1">
-      <c r="A34" s="26"/>
-      <c r="B34" s="26"/>
-    </row>
-    <row r="35" spans="1:2" ht="31.5" customHeight="1">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26"/>
-    </row>
-    <row r="36" spans="1:2" ht="31.5" customHeight="1">
-      <c r="A36" s="26"/>
-      <c r="B36" s="26"/>
+      <c r="Q25" s="14"/>
+    </row>
+    <row r="26" spans="1:24" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="75"/>
+      <c r="B26" s="75"/>
+    </row>
+    <row r="27" spans="1:24" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="75"/>
+      <c r="B27" s="75"/>
+    </row>
+    <row r="28" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="75"/>
+      <c r="B28" s="75"/>
+    </row>
+    <row r="29" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="75"/>
+      <c r="B29" s="75"/>
+    </row>
+    <row r="30" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="75"/>
+      <c r="B30" s="75"/>
+    </row>
+    <row r="31" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="75"/>
+      <c r="B31" s="75"/>
+    </row>
+    <row r="32" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="75"/>
+      <c r="B32" s="75"/>
+    </row>
+    <row r="33" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="75"/>
+      <c r="B33" s="75"/>
+    </row>
+    <row r="34" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="75"/>
+      <c r="B34" s="75"/>
+    </row>
+    <row r="35" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="75"/>
+      <c r="B35" s="75"/>
+    </row>
+    <row r="36" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="75"/>
+      <c r="B36" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="C22:G24"/>
-    <mergeCell ref="L22:X24"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="I8:X8"/>
     <mergeCell ref="I13:L13"/>
@@ -2045,21 +2448,22 @@
     <mergeCell ref="C8:H14"/>
     <mergeCell ref="P11:T11"/>
     <mergeCell ref="I9:T9"/>
-    <mergeCell ref="O12:T12"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="U9:X14"/>
     <mergeCell ref="O19:T19"/>
+    <mergeCell ref="C18:T18"/>
     <mergeCell ref="O16:T16"/>
     <mergeCell ref="I14:T14"/>
-    <mergeCell ref="H22:K24"/>
+    <mergeCell ref="U22:X24"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="U15:X21"/>
     <mergeCell ref="I17:N17"/>
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="G20:M20"/>
+    <mergeCell ref="O12:T12"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A31:B31"/>
@@ -2067,16 +2471,17 @@
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C21:E21"/>
     <mergeCell ref="A22:B24"/>
     <mergeCell ref="A15:B21"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C21:H21"/>
     <mergeCell ref="I16:N16"/>
-    <mergeCell ref="F18:T18"/>
+    <mergeCell ref="E22:J24"/>
+    <mergeCell ref="K22:L24"/>
+    <mergeCell ref="F21:N21"/>
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="A8:B14"/>
     <mergeCell ref="N20:T20"/>
-    <mergeCell ref="I21:S21"/>
     <mergeCell ref="K19:N19"/>
     <mergeCell ref="C15:M15"/>
     <mergeCell ref="O15:T15"/>
@@ -2085,14 +2490,1830 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.4" right="0.4" top="0.4" bottom="0.4" header="0.25" footer="0.25"/>
-  <pageSetup paperSize="9" scale="27" fitToHeight="0" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="27" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter differentFirst="1">
     <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="7" width="29.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="30"/>
+      <c r="B1" s="109" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31"/>
+    </row>
+    <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="35">
+        <v>1</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="35">
+        <v>200</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="35">
+        <v>10</v>
+      </c>
+      <c r="F3" s="35">
+        <v>30</v>
+      </c>
+      <c r="G3" s="35">
+        <f>PRODUCT(C3,E3)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" s="35">
+        <v>2</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="35">
+        <v>200</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="35">
+        <v>10</v>
+      </c>
+      <c r="F4" s="35">
+        <v>30</v>
+      </c>
+      <c r="G4" s="35">
+        <f t="shared" ref="G4:G33" si="0">PRODUCT(C4,E4)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="35">
+        <v>3</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="35">
+        <v>250</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="35">
+        <v>10</v>
+      </c>
+      <c r="F5" s="35">
+        <v>30</v>
+      </c>
+      <c r="G5" s="35">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A6" s="35">
+        <v>4</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="35">
+        <v>100</v>
+      </c>
+      <c r="D6" s="35">
+        <v>1</v>
+      </c>
+      <c r="E6" s="35">
+        <v>20</v>
+      </c>
+      <c r="F6" s="35">
+        <v>20</v>
+      </c>
+      <c r="G6" s="35">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7" s="35">
+        <v>5</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="35">
+        <v>100</v>
+      </c>
+      <c r="D7" s="35">
+        <v>1</v>
+      </c>
+      <c r="E7" s="35">
+        <v>40</v>
+      </c>
+      <c r="F7" s="35">
+        <v>20</v>
+      </c>
+      <c r="G7" s="35">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A8" s="35">
+        <v>6</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="35">
+        <v>250</v>
+      </c>
+      <c r="D8" s="35">
+        <v>5</v>
+      </c>
+      <c r="E8" s="35">
+        <v>20</v>
+      </c>
+      <c r="F8" s="35">
+        <v>100</v>
+      </c>
+      <c r="G8" s="35">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A9" s="35">
+        <v>7</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="35">
+        <v>250</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="35">
+        <v>10</v>
+      </c>
+      <c r="F9" s="35">
+        <v>30</v>
+      </c>
+      <c r="G9" s="35">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A10" s="35">
+        <v>8</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="35">
+        <v>200</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="35">
+        <v>10</v>
+      </c>
+      <c r="F10" s="35">
+        <v>30</v>
+      </c>
+      <c r="G10" s="35">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A11" s="35">
+        <v>9</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="35">
+        <v>200</v>
+      </c>
+      <c r="D11" s="35">
+        <v>2</v>
+      </c>
+      <c r="E11" s="35">
+        <v>10</v>
+      </c>
+      <c r="F11" s="35">
+        <v>20</v>
+      </c>
+      <c r="G11" s="35">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A12" s="35">
+        <v>10</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="35">
+        <v>500</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="35">
+        <v>12</v>
+      </c>
+      <c r="F12" s="35">
+        <v>36</v>
+      </c>
+      <c r="G12" s="35">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A13" s="35">
+        <v>11</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="35">
+        <v>100</v>
+      </c>
+      <c r="D13" s="35">
+        <v>1</v>
+      </c>
+      <c r="E13" s="35">
+        <v>20</v>
+      </c>
+      <c r="F13" s="35">
+        <v>20</v>
+      </c>
+      <c r="G13" s="35">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A14" s="35">
+        <v>12</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="35">
+        <v>300</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="35">
+        <v>15</v>
+      </c>
+      <c r="F14" s="35">
+        <v>45</v>
+      </c>
+      <c r="G14" s="35">
+        <f t="shared" si="0"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A15" s="35">
+        <v>13</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="35">
+        <v>350</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="35">
+        <v>10</v>
+      </c>
+      <c r="F15" s="35">
+        <v>30</v>
+      </c>
+      <c r="G15" s="35">
+        <f t="shared" si="0"/>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A16" s="35">
+        <v>14</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="35">
+        <v>200</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="35">
+        <v>10</v>
+      </c>
+      <c r="F16" s="35">
+        <v>30</v>
+      </c>
+      <c r="G16" s="35">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A17" s="35">
+        <v>15</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="35">
+        <v>200</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="35">
+        <v>15</v>
+      </c>
+      <c r="F17" s="35">
+        <v>45</v>
+      </c>
+      <c r="G17" s="35">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A18" s="35">
+        <v>16</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="35">
+        <v>200</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="35">
+        <v>15</v>
+      </c>
+      <c r="F18" s="35">
+        <v>45</v>
+      </c>
+      <c r="G18" s="35">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A19" s="35">
+        <v>17</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="35">
+        <v>200</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="35">
+        <v>15</v>
+      </c>
+      <c r="F19" s="35">
+        <v>45</v>
+      </c>
+      <c r="G19" s="35">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A20" s="35">
+        <v>18</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="35">
+        <v>200</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="35">
+        <v>15</v>
+      </c>
+      <c r="F20" s="35">
+        <v>45</v>
+      </c>
+      <c r="G20" s="35">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A21" s="35">
+        <v>19</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="35">
+        <v>200</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="35">
+        <v>10</v>
+      </c>
+      <c r="F21" s="35">
+        <v>30</v>
+      </c>
+      <c r="G21" s="35">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A22" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A23" s="35">
+        <v>1</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="35">
+        <v>200</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="35">
+        <v>20</v>
+      </c>
+      <c r="F23" s="35">
+        <v>60</v>
+      </c>
+      <c r="G23" s="35">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A24" s="35">
+        <v>2</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="35">
+        <v>200</v>
+      </c>
+      <c r="D24" s="35">
+        <v>3</v>
+      </c>
+      <c r="E24" s="35">
+        <v>20</v>
+      </c>
+      <c r="F24" s="35">
+        <v>60</v>
+      </c>
+      <c r="G24" s="35">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A25" s="35">
+        <v>3</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="35">
+        <v>100</v>
+      </c>
+      <c r="D25" s="35">
+        <v>1</v>
+      </c>
+      <c r="E25" s="35">
+        <v>50</v>
+      </c>
+      <c r="F25" s="35">
+        <v>50</v>
+      </c>
+      <c r="G25" s="35">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A26" s="35">
+        <v>4</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="35">
+        <v>100</v>
+      </c>
+      <c r="D26" s="35">
+        <v>1</v>
+      </c>
+      <c r="E26" s="35">
+        <v>30</v>
+      </c>
+      <c r="F26" s="35">
+        <v>30</v>
+      </c>
+      <c r="G26" s="35">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A27" s="35">
+        <v>5</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="35">
+        <v>100</v>
+      </c>
+      <c r="D27" s="35">
+        <v>1</v>
+      </c>
+      <c r="E27" s="35">
+        <v>30</v>
+      </c>
+      <c r="F27" s="35">
+        <v>30</v>
+      </c>
+      <c r="G27" s="35">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A28" s="35">
+        <v>6</v>
+      </c>
+      <c r="B28" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="35">
+        <v>100</v>
+      </c>
+      <c r="D28" s="35">
+        <v>1</v>
+      </c>
+      <c r="E28" s="35">
+        <v>20</v>
+      </c>
+      <c r="F28" s="35">
+        <v>20</v>
+      </c>
+      <c r="G28" s="35">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A29" s="35">
+        <v>7</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="35">
+        <v>500</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="35">
+        <v>10</v>
+      </c>
+      <c r="F29" s="35">
+        <v>50</v>
+      </c>
+      <c r="G29" s="35">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A30" s="35">
+        <v>8</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="35">
+        <v>500</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="35">
+        <v>10</v>
+      </c>
+      <c r="F30" s="35">
+        <v>50</v>
+      </c>
+      <c r="G30" s="35">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A31" s="35">
+        <v>9</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="35">
+        <v>500</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="35">
+        <v>5</v>
+      </c>
+      <c r="F31" s="35">
+        <v>50</v>
+      </c>
+      <c r="G31" s="35">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A32" s="35">
+        <v>10</v>
+      </c>
+      <c r="B32" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="35">
+        <v>1000</v>
+      </c>
+      <c r="D32" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="35">
+        <v>10</v>
+      </c>
+      <c r="F32" s="35">
+        <v>100</v>
+      </c>
+      <c r="G32" s="35">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A33" s="35">
+        <v>11</v>
+      </c>
+      <c r="B33" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="35">
+        <v>1000</v>
+      </c>
+      <c r="D33" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="35">
+        <v>10</v>
+      </c>
+      <c r="F33" s="35">
+        <v>100</v>
+      </c>
+      <c r="G33" s="35">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="46">
+        <f>SUM(F3:F33)</f>
+        <v>1281</v>
+      </c>
+      <c r="G34" s="35">
+        <f>SUM(G3:G33)</f>
+        <v>109500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="47"/>
+      <c r="B35" s="110" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="110"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="48"/>
+    </row>
+    <row r="36" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="47"/>
+      <c r="B36" s="110" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="110"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="48"/>
+    </row>
+    <row r="37" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="47"/>
+      <c r="B37" s="110" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="110"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="48"/>
+    </row>
+    <row r="38" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="47"/>
+      <c r="B38" s="110" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="110"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="114" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+    </row>
+    <row r="2" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
+      <c r="A2" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="50">
+        <v>1</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="51">
+        <v>4000</v>
+      </c>
+      <c r="E3" s="52">
+        <v>2000</v>
+      </c>
+      <c r="F3" s="51">
+        <v>1000</v>
+      </c>
+      <c r="G3" s="52">
+        <v>1000</v>
+      </c>
+      <c r="H3" s="52">
+        <f t="shared" ref="H3:H21" si="0">SUM(D3:G3)</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" s="50">
+        <v>2</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="51">
+        <v>4000</v>
+      </c>
+      <c r="E4" s="52">
+        <v>2000</v>
+      </c>
+      <c r="F4" s="52">
+        <v>1000</v>
+      </c>
+      <c r="G4" s="52">
+        <v>3000</v>
+      </c>
+      <c r="H4" s="52">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A5" s="34">
+        <v>3</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="53">
+        <v>10000</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53">
+        <v>5000</v>
+      </c>
+      <c r="H5" s="54">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A6" s="34">
+        <v>4</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="53">
+        <v>5000</v>
+      </c>
+      <c r="E6" s="53">
+        <v>2000</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" s="54">
+        <f t="shared" si="0"/>
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7" s="34">
+        <v>5</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="53">
+        <v>5000</v>
+      </c>
+      <c r="E7" s="54">
+        <v>3000</v>
+      </c>
+      <c r="F7" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" s="54">
+        <f t="shared" si="0"/>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A8" s="34">
+        <v>6</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="53">
+        <v>8000</v>
+      </c>
+      <c r="E8" s="53">
+        <v>5000</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" s="54">
+        <f t="shared" si="0"/>
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A9" s="50">
+        <v>7</v>
+      </c>
+      <c r="B9" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="51">
+        <v>5000</v>
+      </c>
+      <c r="E9" s="51">
+        <v>3000</v>
+      </c>
+      <c r="F9" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="52">
+        <v>5000</v>
+      </c>
+      <c r="H9" s="52">
+        <f t="shared" si="0"/>
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A10" s="50">
+        <v>8</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="51">
+        <v>4000</v>
+      </c>
+      <c r="E10" s="52">
+        <v>2000</v>
+      </c>
+      <c r="F10" s="52">
+        <v>1000</v>
+      </c>
+      <c r="G10" s="52">
+        <v>3000</v>
+      </c>
+      <c r="H10" s="52">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A11" s="50">
+        <v>9</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="51">
+        <v>4000</v>
+      </c>
+      <c r="E11" s="52">
+        <v>3000</v>
+      </c>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51">
+        <v>500</v>
+      </c>
+      <c r="H11" s="52">
+        <f t="shared" si="0"/>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A12" s="34">
+        <v>10</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="54">
+        <v>25000</v>
+      </c>
+      <c r="E12" s="54">
+        <v>12000</v>
+      </c>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53">
+        <v>20000</v>
+      </c>
+      <c r="H12" s="54">
+        <f t="shared" si="0"/>
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A13" s="34">
+        <v>11</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="53">
+        <v>4000</v>
+      </c>
+      <c r="E13" s="53">
+        <v>2000</v>
+      </c>
+      <c r="F13" s="53"/>
+      <c r="G13" s="54">
+        <v>500</v>
+      </c>
+      <c r="H13" s="54">
+        <f t="shared" si="0"/>
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A14" s="34">
+        <v>12</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="53">
+        <v>5000</v>
+      </c>
+      <c r="E14" s="53">
+        <v>3000</v>
+      </c>
+      <c r="F14" s="54">
+        <v>2000</v>
+      </c>
+      <c r="G14" s="54">
+        <v>9000</v>
+      </c>
+      <c r="H14" s="54">
+        <f t="shared" si="0"/>
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A15" s="34">
+        <v>13</v>
+      </c>
+      <c r="B15" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="54">
+        <v>15000</v>
+      </c>
+      <c r="E15" s="54">
+        <v>10000</v>
+      </c>
+      <c r="F15" s="53">
+        <v>7000</v>
+      </c>
+      <c r="G15" s="53">
+        <v>5000</v>
+      </c>
+      <c r="H15" s="54">
+        <f t="shared" si="0"/>
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A16" s="34">
+        <v>14</v>
+      </c>
+      <c r="B16" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="51">
+        <v>3000</v>
+      </c>
+      <c r="E16" s="52">
+        <v>2000</v>
+      </c>
+      <c r="F16" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="52">
+        <v>1000</v>
+      </c>
+      <c r="H16" s="52">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A17" s="34">
+        <v>15</v>
+      </c>
+      <c r="B17" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="53">
+        <v>5000</v>
+      </c>
+      <c r="E17" s="54">
+        <v>3000</v>
+      </c>
+      <c r="F17" s="54">
+        <v>2000</v>
+      </c>
+      <c r="G17" s="115">
+        <v>1000</v>
+      </c>
+      <c r="H17" s="54">
+        <f t="shared" si="0"/>
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A18" s="34">
+        <v>16</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="53">
+        <v>5000</v>
+      </c>
+      <c r="E18" s="54">
+        <v>3000</v>
+      </c>
+      <c r="F18" s="54">
+        <v>2000</v>
+      </c>
+      <c r="G18" s="116"/>
+      <c r="H18" s="54">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A19" s="34">
+        <v>17</v>
+      </c>
+      <c r="B19" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="53">
+        <v>5000</v>
+      </c>
+      <c r="E19" s="54">
+        <v>3000</v>
+      </c>
+      <c r="F19" s="54">
+        <v>2000</v>
+      </c>
+      <c r="G19" s="116"/>
+      <c r="H19" s="54">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A20" s="34">
+        <v>18</v>
+      </c>
+      <c r="B20" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="53">
+        <v>5000</v>
+      </c>
+      <c r="E20" s="54">
+        <v>3000</v>
+      </c>
+      <c r="F20" s="54">
+        <v>2000</v>
+      </c>
+      <c r="G20" s="117"/>
+      <c r="H20" s="54">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A21" s="34">
+        <v>19</v>
+      </c>
+      <c r="B21" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="51">
+        <v>8000</v>
+      </c>
+      <c r="E21" s="52">
+        <v>5000</v>
+      </c>
+      <c r="F21" s="52">
+        <v>3000</v>
+      </c>
+      <c r="G21" s="52">
+        <v>10000</v>
+      </c>
+      <c r="H21" s="52">
+        <f t="shared" si="0"/>
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="34"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="118" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="119"/>
+      <c r="G22" s="120"/>
+      <c r="H22" s="55">
+        <f>SUM(H3:H21)</f>
+        <v>284000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+    </row>
+    <row r="25" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="30"/>
+      <c r="B25" s="111" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="112"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+    </row>
+    <row r="26" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="30"/>
+      <c r="B26" s="111" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="112"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+    </row>
+    <row r="27" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="30"/>
+      <c r="B27" s="111" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="112"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+    </row>
+    <row r="28" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="30"/>
+      <c r="B28" s="111" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="112"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+    </row>
+    <row r="30" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="113" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="113"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+    </row>
+    <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="A31" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="F31" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="G31" s="57" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A32" s="58">
+        <v>1</v>
+      </c>
+      <c r="B32" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="59">
+        <v>3000</v>
+      </c>
+      <c r="D32" s="59">
+        <v>2000</v>
+      </c>
+      <c r="E32" s="59">
+        <v>1000</v>
+      </c>
+      <c r="F32" s="59">
+        <v>3000</v>
+      </c>
+      <c r="G32" s="59">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A33" s="58">
+        <v>2</v>
+      </c>
+      <c r="B33" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="59">
+        <v>5000</v>
+      </c>
+      <c r="D33" s="59">
+        <v>3000</v>
+      </c>
+      <c r="E33" s="59">
+        <v>1500</v>
+      </c>
+      <c r="F33" s="59">
+        <v>1000</v>
+      </c>
+      <c r="G33" s="59">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A34" s="58">
+        <v>3</v>
+      </c>
+      <c r="B34" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="59">
+        <v>7000</v>
+      </c>
+      <c r="D34" s="59">
+        <v>5000</v>
+      </c>
+      <c r="E34" s="59">
+        <v>3000</v>
+      </c>
+      <c r="F34" s="59">
+        <v>3000</v>
+      </c>
+      <c r="G34" s="59">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A35" s="58">
+        <v>4</v>
+      </c>
+      <c r="B35" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="59">
+        <v>3000</v>
+      </c>
+      <c r="D35" s="59">
+        <v>2000</v>
+      </c>
+      <c r="E35" s="59">
+        <v>1000</v>
+      </c>
+      <c r="F35" s="59">
+        <v>1000</v>
+      </c>
+      <c r="G35" s="59">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A36" s="58">
+        <v>5</v>
+      </c>
+      <c r="B36" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="59">
+        <v>4000</v>
+      </c>
+      <c r="D36" s="59">
+        <v>2500</v>
+      </c>
+      <c r="E36" s="59">
+        <v>1500</v>
+      </c>
+      <c r="F36" s="59">
+        <v>1000</v>
+      </c>
+      <c r="G36" s="59">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A37" s="58">
+        <v>6</v>
+      </c>
+      <c r="B37" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="59">
+        <v>3000</v>
+      </c>
+      <c r="D37" s="59">
+        <v>2000</v>
+      </c>
+      <c r="E37" s="59">
+        <v>1000</v>
+      </c>
+      <c r="F37" s="59">
+        <v>1000</v>
+      </c>
+      <c r="G37" s="59">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A38" s="58">
+        <v>7</v>
+      </c>
+      <c r="B38" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="59">
+        <v>20000</v>
+      </c>
+      <c r="D38" s="59">
+        <v>12000</v>
+      </c>
+      <c r="E38" s="59">
+        <v>8000</v>
+      </c>
+      <c r="F38" s="59">
+        <v>20000</v>
+      </c>
+      <c r="G38" s="59">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A39" s="58">
+        <v>8</v>
+      </c>
+      <c r="B39" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="59">
+        <v>20000</v>
+      </c>
+      <c r="D39" s="59">
+        <v>12000</v>
+      </c>
+      <c r="E39" s="59">
+        <v>8000</v>
+      </c>
+      <c r="F39" s="59">
+        <v>20000</v>
+      </c>
+      <c r="G39" s="59">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A40" s="58">
+        <v>9</v>
+      </c>
+      <c r="B40" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="59">
+        <v>8000</v>
+      </c>
+      <c r="D40" s="59">
+        <v>5000</v>
+      </c>
+      <c r="E40" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="F40" s="59">
+        <v>1000</v>
+      </c>
+      <c r="G40" s="59">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A41" s="58">
+        <v>10</v>
+      </c>
+      <c r="B41" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="59">
+        <v>30000</v>
+      </c>
+      <c r="D41" s="59">
+        <v>20000</v>
+      </c>
+      <c r="E41" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="F41" s="59">
+        <v>5000</v>
+      </c>
+      <c r="G41" s="59">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A42" s="58">
+        <v>11</v>
+      </c>
+      <c r="B42" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="59">
+        <v>30000</v>
+      </c>
+      <c r="D42" s="59">
+        <v>20000</v>
+      </c>
+      <c r="E42" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="F42" s="59">
+        <v>5000</v>
+      </c>
+      <c r="G42" s="59">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A43" s="30"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="E43" s="63"/>
+      <c r="F43" s="111">
+        <f>SUM(G32:G42)</f>
+        <v>304500</v>
+      </c>
+      <c r="G43" s="112"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="G17:G20"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" xr3:uid="{51F8DEE0-4D01-5F28-A812-FC0BD7CAC4A5}"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>